--- a/Documentacion/Vigilancia  Tecnológica/Cuadro comparativo.xlsx
+++ b/Documentacion/Vigilancia  Tecnológica/Cuadro comparativo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\Aprendiz\Escritorio\BootCamp\Vigilancia  Tecnológica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\Aprendiz\Escritorio\BootCamp\Documentacion\Vigilancia  Tecnológica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7BDDF59-085F-4FEB-99F5-7702BF6345D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227560AD-F9DB-4FC1-A729-B73E47F05664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{562B3E0C-CA04-4A4C-AFF7-4C877C11447E}"/>
   </bookViews>
@@ -36,15 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Funcionalidades</t>
-  </si>
-  <si>
-    <t>Creación de usuario (Login)</t>
-  </si>
-  <si>
-    <t>Creación de salas (Multijagador)</t>
   </si>
   <si>
     <t>Sistema de Ranking</t>
@@ -204,19 +198,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="112" wrapText="1"/>
@@ -260,13 +251,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>628652</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161455</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -320,14 +311,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>66203</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -381,13 +372,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>66203</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -443,13 +434,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>199553</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -504,13 +495,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47153</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -565,13 +556,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>129294</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -625,14 +616,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>110244</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -686,13 +677,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>110244</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -747,14 +738,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>215019</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -808,13 +799,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>215019</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -869,14 +860,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>291219</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -930,13 +921,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>281694</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -991,7 +982,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="294803" cy="295275"/>
@@ -1047,7 +1038,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="405519" cy="333374"/>
@@ -1103,7 +1094,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="294803" cy="295275"/>
@@ -1159,7 +1150,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="294803" cy="295275"/>
@@ -1215,7 +1206,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="294803" cy="295275"/>
@@ -1271,7 +1262,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="405519" cy="333374"/>
@@ -1327,7 +1318,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="294803" cy="295275"/>
@@ -1383,7 +1374,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="294803" cy="295275"/>
@@ -1755,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5184D66-DF0F-4074-86EB-60515D60F65C}">
-  <dimension ref="D2:M15"/>
+  <dimension ref="D2:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="D10" sqref="D10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,30 +1758,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1801,8 +1792,8 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1813,8 +1804,8 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1825,167 +1816,105 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
-        <v>2</v>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
-        <v>3</v>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="L14:M15"/>
+  <mergeCells count="20">
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="H2:I5"/>
+    <mergeCell ref="J2:K5"/>
+    <mergeCell ref="L2:M5"/>
+    <mergeCell ref="D2:E5"/>
+    <mergeCell ref="F2:G5"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="F10:G11"/>
     <mergeCell ref="H10:I11"/>
     <mergeCell ref="J10:K11"/>
     <mergeCell ref="L10:M11"/>
-    <mergeCell ref="H2:I5"/>
-    <mergeCell ref="J2:K5"/>
-    <mergeCell ref="L2:M5"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="D2:E5"/>
-    <mergeCell ref="F2:G5"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="D12:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
